--- a/交互设计/随从卡.xlsx
+++ b/交互设计/随从卡.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mr.Orange\Desktop\交互设计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\code\github\Card-Chronicles-Prophecy\交互设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9DC65E-090B-4D04-BADE-C543A58A44ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C62D5C-EA14-411C-A8E5-532877CD4D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4540" yWindow="1540" windowWidth="19360" windowHeight="11980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,29 @@
   </si>
   <si>
     <t>每回合为我方血量最少的恢复5点血量（不可溢出）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charmander</t>
+  </si>
+  <si>
+    <t>DragonTurtle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ninja</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panada</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -115,7 +138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +152,20 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,8 +188,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -433,154 +472,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" customWidth="1"/>
-    <col min="6" max="6" width="41.08203125" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" customWidth="1"/>
+    <col min="7" max="7" width="41.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>45</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>5</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>5</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>45</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>17</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>3</v>
       </c>
     </row>
